--- a/Figures/figure3.xlsx
+++ b/Figures/figure3.xlsx
@@ -458,7 +458,7 @@
         <v>8.204858643985293</v>
       </c>
       <c r="C2" t="n">
-        <v>2.452732851053649</v>
+        <v>2.509456215673439</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         <v>8.724076727470321</v>
       </c>
       <c r="C3" t="n">
-        <v>2.075522040174727</v>
+        <v>2.185535472648166</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>9.086817545418659</v>
       </c>
       <c r="C4" t="n">
-        <v>2.222427562870527</v>
+        <v>2.243884193972659</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>9.310073361306239</v>
       </c>
       <c r="C5" t="n">
-        <v>2.579690089101088</v>
+        <v>2.634388017383684</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>9.462621977335871</v>
       </c>
       <c r="C6" t="n">
-        <v>3.117422626274823</v>
+        <v>3.032236367124143</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>9.508989953823765</v>
       </c>
       <c r="C7" t="n">
-        <v>2.889975244936554</v>
+        <v>3.029295740665395</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>9.557464164467016</v>
       </c>
       <c r="C8" t="n">
-        <v>2.38992605875915</v>
+        <v>2.575649401539917</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>9.582811674022539</v>
       </c>
       <c r="C9" t="n">
-        <v>2.617302109455423</v>
+        <v>2.567822982492244</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>9.583271936338569</v>
       </c>
       <c r="C10" t="n">
-        <v>2.281153000131166</v>
+        <v>2.371322397967262</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>9.904619911500543</v>
       </c>
       <c r="C11" t="n">
-        <v>2.618837264292528</v>
+        <v>2.625307044223243</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>9.912801637350343</v>
       </c>
       <c r="C12" t="n">
-        <v>3.082516049736334</v>
+        <v>3.095527553323942</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>9.973343737240919</v>
       </c>
       <c r="C13" t="n">
-        <v>3.005532488099181</v>
+        <v>3.092460254795062</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>10.16888861310242</v>
       </c>
       <c r="C14" t="n">
-        <v>3.761372066305839</v>
+        <v>3.894552370804551</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>10.19114585763944</v>
       </c>
       <c r="C15" t="n">
-        <v>3.396707407048492</v>
+        <v>3.427484682422983</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>10.21436881708641</v>
       </c>
       <c r="C16" t="n">
-        <v>3.251853147808883</v>
+        <v>3.328605657248293</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>10.24738044023296</v>
       </c>
       <c r="C17" t="n">
-        <v>2.490997874331938</v>
+        <v>2.436029430302401</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>10.2578264967586</v>
       </c>
       <c r="C18" t="n">
-        <v>3.485806780676805</v>
+        <v>3.503510884015943</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>10.27811419454891</v>
       </c>
       <c r="C19" t="n">
-        <v>3.358248049319274</v>
+        <v>3.349985866179</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>10.29313824695295</v>
       </c>
       <c r="C20" t="n">
-        <v>3.678147880522994</v>
+        <v>3.765452186224941</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>10.30232441354858</v>
       </c>
       <c r="C21" t="n">
-        <v>3.208245875925419</v>
+        <v>3.215962380020754</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>10.33885792336138</v>
       </c>
       <c r="C22" t="n">
-        <v>2.992492216873265</v>
+        <v>3.069594449164629</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>10.40686748622607</v>
       </c>
       <c r="C23" t="n">
-        <v>3.117758439593448</v>
+        <v>3.117133127530936</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>10.42884092963568</v>
       </c>
       <c r="C24" t="n">
-        <v>3.928454577158739</v>
+        <v>4.003522069817074</v>
       </c>
     </row>
     <row r="25">
@@ -757,7 +757,7 @@
         <v>10.43018826609037</v>
       </c>
       <c r="C25" t="n">
-        <v>3.541912240869093</v>
+        <v>3.572963108361987</v>
       </c>
     </row>
     <row r="26">
@@ -770,7 +770,7 @@
         <v>10.50946780174723</v>
       </c>
       <c r="C26" t="n">
-        <v>3.620915921919678</v>
+        <v>3.663099699935647</v>
       </c>
     </row>
     <row r="27">
@@ -783,7 +783,7 @@
         <v>10.54311072137747</v>
       </c>
       <c r="C27" t="n">
-        <v>3.44094910079761</v>
+        <v>3.516793927601103</v>
       </c>
     </row>
     <row r="28">
@@ -796,7 +796,7 @@
         <v>10.55860394142164</v>
       </c>
       <c r="C28" t="n">
-        <v>3.455240310633163</v>
+        <v>3.546072538187211</v>
       </c>
     </row>
     <row r="29">
@@ -809,7 +809,7 @@
         <v>10.58726202516535</v>
       </c>
       <c r="C29" t="n">
-        <v>3.317182948988349</v>
+        <v>3.430462325129673</v>
       </c>
     </row>
     <row r="30">
@@ -822,7 +822,7 @@
         <v>10.61708749035714</v>
       </c>
       <c r="C30" t="n">
-        <v>3.758708863080449</v>
+        <v>3.38417154883301</v>
       </c>
     </row>
     <row r="31">
@@ -835,7 +835,7 @@
         <v>10.62135164634535</v>
       </c>
       <c r="C31" t="n">
-        <v>2.991625318916455</v>
+        <v>3.153460294075716</v>
       </c>
     </row>
     <row r="32">
@@ -848,7 +848,7 @@
         <v>10.63924956475985</v>
       </c>
       <c r="C32" t="n">
-        <v>2.319262538735319</v>
+        <v>2.315660737993822</v>
       </c>
     </row>
     <row r="33">
@@ -861,7 +861,7 @@
         <v>10.64028841412543</v>
       </c>
       <c r="C33" t="n">
-        <v>3.461122233950505</v>
+        <v>3.470436808564557</v>
       </c>
     </row>
     <row r="34">
@@ -874,7 +874,7 @@
         <v>10.70664007079346</v>
       </c>
       <c r="C34" t="n">
-        <v>3.475518824834042</v>
+        <v>3.487241962251574</v>
       </c>
     </row>
     <row r="35">
@@ -887,7 +887,7 @@
         <v>10.73613492021338</v>
       </c>
       <c r="C35" t="n">
-        <v>3.625049809046133</v>
+        <v>3.566251976596085</v>
       </c>
     </row>
     <row r="36">
@@ -900,7 +900,7 @@
         <v>10.76263510978719</v>
       </c>
       <c r="C36" t="n">
-        <v>3.080887005716392</v>
+        <v>3.136189158239709</v>
       </c>
     </row>
     <row r="37">
@@ -913,7 +913,7 @@
         <v>10.76786654533952</v>
       </c>
       <c r="C37" t="n">
-        <v>3.858091421515821</v>
+        <v>3.849656992607283</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +926,7 @@
         <v>10.79256642223167</v>
       </c>
       <c r="C38" t="n">
-        <v>4.278308139287956</v>
+        <v>4.297150736008678</v>
       </c>
     </row>
     <row r="39">
@@ -939,7 +939,7 @@
         <v>10.8228263521391</v>
       </c>
       <c r="C39" t="n">
-        <v>3.71466601038533</v>
+        <v>3.761300017304696</v>
       </c>
     </row>
     <row r="40">
@@ -952,7 +952,7 @@
         <v>10.8350892807137</v>
       </c>
       <c r="C40" t="n">
-        <v>3.629993309638212</v>
+        <v>3.651368900794629</v>
       </c>
     </row>
     <row r="41">
@@ -965,7 +965,7 @@
         <v>10.87223500315621</v>
       </c>
       <c r="C41" t="n">
-        <v>3.711415207431707</v>
+        <v>3.71482738654161</v>
       </c>
     </row>
     <row r="42">
@@ -978,7 +978,7 @@
         <v>10.87826864010029</v>
       </c>
       <c r="C42" t="n">
-        <v>3.838602591889922</v>
+        <v>3.812768194122066</v>
       </c>
     </row>
     <row r="43">
@@ -991,7 +991,7 @@
         <v>10.90875039962612</v>
       </c>
       <c r="C43" t="n">
-        <v>3.859313915921958</v>
+        <v>3.871085146956701</v>
       </c>
     </row>
     <row r="44">
@@ -1004,7 +1004,7 @@
         <v>10.91591748238963</v>
       </c>
       <c r="C44" t="n">
-        <v>3.83800859339498</v>
+        <v>3.861459409682318</v>
       </c>
     </row>
     <row r="45">
@@ -1017,7 +1017,7 @@
         <v>10.92141194160467</v>
       </c>
       <c r="C45" t="n">
-        <v>3.470557122237722</v>
+        <v>3.476947107393974</v>
       </c>
     </row>
     <row r="46">
@@ -1030,7 +1030,7 @@
         <v>11.00183465807994</v>
       </c>
       <c r="C46" t="n">
-        <v>4.481773049552297</v>
+        <v>4.467692491254001</v>
       </c>
     </row>
     <row r="47">
@@ -1043,7 +1043,7 @@
         <v>11.04994028750337</v>
       </c>
       <c r="C47" t="n">
-        <v>3.660822557820606</v>
+        <v>3.663417567657489</v>
       </c>
     </row>
     <row r="48">
@@ -1056,7 +1056,7 @@
         <v>11.11452123561476</v>
       </c>
       <c r="C48" t="n">
-        <v>3.674595903636177</v>
+        <v>3.638848561569725</v>
       </c>
     </row>
     <row r="49">
@@ -1069,7 +1069,7 @@
         <v>11.26717178601228</v>
       </c>
       <c r="C49" t="n">
-        <v>3.603579200692275</v>
+        <v>3.666222677275303</v>
       </c>
     </row>
     <row r="50">
@@ -1082,7 +1082,7 @@
         <v>11.63249069348163</v>
       </c>
       <c r="C50" t="n">
-        <v>3.833612707455897</v>
+        <v>3.944520635193086</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6390223818172082</v>
+        <v>0.617943884613304</v>
       </c>
     </row>
     <row r="3">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.316036450759675</v>
+        <v>-3.068316520211936</v>
       </c>
     </row>
     <row r="4">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7586233761271228</v>
+        <v>0.7495529573878316</v>
       </c>
     </row>
     <row r="5">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.704809269487259e-10</v>
+        <v>5.763973609023893e-10</v>
       </c>
     </row>
     <row r="6">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08005250840590786</v>
+        <v>0.07960114007370835</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>8.204858643985293</v>
       </c>
       <c r="C2" t="n">
-        <v>65.17638099489911</v>
+        <v>66.4524908131206</v>
       </c>
     </row>
     <row r="3">
@@ -1215,7 +1215,7 @@
         <v>8.724076727470321</v>
       </c>
       <c r="C3" t="n">
-        <v>39.97380104758363</v>
+        <v>42.64026900478072</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         <v>9.086817545418659</v>
       </c>
       <c r="C4" t="n">
-        <v>34.74586433928123</v>
+        <v>35.23393170172469</v>
       </c>
     </row>
     <row r="5">
@@ -1241,7 +1241,7 @@
         <v>9.310073361306239</v>
       </c>
       <c r="C5" t="n">
-        <v>47.0104135083893</v>
+        <v>48.37486405459941</v>
       </c>
     </row>
     <row r="6">
@@ -1254,7 +1254,7 @@
         <v>9.462621977335871</v>
       </c>
       <c r="C6" t="n">
-        <v>43.00803491407342</v>
+        <v>40.93363375730093</v>
       </c>
     </row>
     <row r="7">
@@ -1267,7 +1267,7 @@
         <v>9.508989953823765</v>
       </c>
       <c r="C7" t="n">
-        <v>32.8433072083584</v>
+        <v>35.98627021789225</v>
       </c>
     </row>
     <row r="8">
@@ -1280,7 +1280,7 @@
         <v>9.557464164467016</v>
       </c>
       <c r="C8" t="n">
-        <v>19.90052554172226</v>
+        <v>23.02677774962908</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>9.582811674022539</v>
       </c>
       <c r="C9" t="n">
-        <v>30.33455093537107</v>
+        <v>29.29920873259056</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1306,7 @@
         <v>9.583271936338569</v>
       </c>
       <c r="C10" t="n">
-        <v>23.48056716039644</v>
+        <v>25.13919667088673</v>
       </c>
     </row>
     <row r="11">
@@ -1319,7 +1319,7 @@
         <v>9.904619911500543</v>
       </c>
       <c r="C11" t="n">
-        <v>35.46345193777265</v>
+        <v>35.61166393834822</v>
       </c>
     </row>
     <row r="12">
@@ -1332,7 +1332,7 @@
         <v>9.912801637350343</v>
       </c>
       <c r="C12" t="n">
-        <v>31.96312784448757</v>
+        <v>32.24674688643637</v>
       </c>
     </row>
     <row r="13">
@@ -1345,7 +1345,7 @@
         <v>9.973343737240919</v>
       </c>
       <c r="C13" t="n">
-        <v>36.99806293443235</v>
+        <v>39.04616410017945</v>
       </c>
     </row>
     <row r="14">
@@ -1358,7 +1358,7 @@
         <v>10.16888861310242</v>
       </c>
       <c r="C14" t="n">
-        <v>42.16079050134915</v>
+        <v>45.43782542211699</v>
       </c>
     </row>
     <row r="15">
@@ -1371,7 +1371,7 @@
         <v>10.19114585763944</v>
       </c>
       <c r="C15" t="n">
-        <v>39.46851168476132</v>
+        <v>40.20614045657195</v>
       </c>
     </row>
     <row r="16">
@@ -1384,7 +1384,7 @@
         <v>10.21436881708641</v>
       </c>
       <c r="C16" t="n">
-        <v>49.84041887487531</v>
+        <v>51.75850547715405</v>
       </c>
     </row>
     <row r="17">
@@ -1397,7 +1397,7 @@
         <v>10.24738044023296</v>
       </c>
       <c r="C17" t="n">
-        <v>23.11264192397262</v>
+        <v>22.15027980493755</v>
       </c>
     </row>
     <row r="18">
@@ -1410,7 +1410,7 @@
         <v>10.2578264967586</v>
       </c>
       <c r="C18" t="n">
-        <v>31.59467152313809</v>
+        <v>31.97854118591171</v>
       </c>
     </row>
     <row r="19">
@@ -1423,7 +1423,7 @@
         <v>10.27811419454891</v>
       </c>
       <c r="C19" t="n">
-        <v>19.27718244425476</v>
+        <v>19.14894016822577</v>
       </c>
     </row>
     <row r="20">
@@ -1436,7 +1436,7 @@
         <v>10.29313824695295</v>
       </c>
       <c r="C20" t="n">
-        <v>45.43629476097596</v>
+        <v>47.60799267953836</v>
       </c>
     </row>
     <row r="21">
@@ -1449,7 +1449,7 @@
         <v>10.30232441354858</v>
       </c>
       <c r="C21" t="n">
-        <v>34.05045673465447</v>
+        <v>34.22395215007255</v>
       </c>
     </row>
     <row r="22">
@@ -1462,7 +1462,7 @@
         <v>10.33885792336138</v>
       </c>
       <c r="C22" t="n">
-        <v>26.87939388416906</v>
+        <v>28.42151690221866</v>
       </c>
     </row>
     <row r="23">
@@ -1475,7 +1475,7 @@
         <v>10.40686748622607</v>
       </c>
       <c r="C23" t="n">
-        <v>31.24912169968838</v>
+        <v>31.23568904224158</v>
       </c>
     </row>
     <row r="24">
@@ -1488,7 +1488,7 @@
         <v>10.42884092963568</v>
       </c>
       <c r="C24" t="n">
-        <v>44.16700759994133</v>
+        <v>46.02541887608308</v>
       </c>
     </row>
     <row r="25">
@@ -1501,7 +1501,7 @@
         <v>10.43018826609037</v>
       </c>
       <c r="C25" t="n">
-        <v>34.21197678795102</v>
+        <v>34.91423684133731</v>
       </c>
     </row>
     <row r="26">
@@ -1514,7 +1514,7 @@
         <v>10.50946780174723</v>
       </c>
       <c r="C26" t="n">
-        <v>38.87221547788482</v>
+        <v>39.87915214126885</v>
       </c>
     </row>
     <row r="27">
@@ -1527,7 +1527,7 @@
         <v>10.54311072137747</v>
       </c>
       <c r="C27" t="n">
-        <v>28.28176449554831</v>
+        <v>29.8451417906251</v>
       </c>
     </row>
     <row r="28">
@@ -1540,7 +1540,7 @@
         <v>10.55860394142164</v>
       </c>
       <c r="C28" t="n">
-        <v>33.06552032375721</v>
+        <v>35.10582168308153</v>
       </c>
     </row>
     <row r="29">
@@ -1553,7 +1553,7 @@
         <v>10.58726202516535</v>
       </c>
       <c r="C29" t="n">
-        <v>34.12783815822288</v>
+        <v>36.71824872206738</v>
       </c>
     </row>
     <row r="30">
@@ -1566,7 +1566,7 @@
         <v>10.61708749035714</v>
       </c>
       <c r="C30" t="n">
-        <v>36.16657161828044</v>
+        <v>28.03595013288169</v>
       </c>
     </row>
     <row r="31">
@@ -1579,7 +1579,7 @@
         <v>10.62135164634535</v>
       </c>
       <c r="C31" t="n">
-        <v>16.53583690484103</v>
+        <v>18.89185637996092</v>
       </c>
     </row>
     <row r="32">
@@ -1592,7 +1592,7 @@
         <v>10.63924956475985</v>
       </c>
       <c r="C32" t="n">
-        <v>10.45496577756137</v>
+        <v>10.4212940656778</v>
       </c>
     </row>
     <row r="33">
@@ -1605,7 +1605,7 @@
         <v>10.64028841412543</v>
       </c>
       <c r="C33" t="n">
-        <v>32.33172472918771</v>
+        <v>32.53584643011944</v>
       </c>
     </row>
     <row r="34">
@@ -1618,7 +1618,7 @@
         <v>10.70664007079346</v>
       </c>
       <c r="C34" t="n">
-        <v>29.1723704889297</v>
+        <v>29.41518519691525</v>
       </c>
     </row>
     <row r="35">
@@ -1631,7 +1631,7 @@
         <v>10.73613492021338</v>
       </c>
       <c r="C35" t="n">
-        <v>35.12617930737012</v>
+        <v>33.79830767598932</v>
       </c>
     </row>
     <row r="36">
@@ -1644,7 +1644,7 @@
         <v>10.76263510978719</v>
       </c>
       <c r="C36" t="n">
-        <v>20.22040066989456</v>
+        <v>21.12722458831445</v>
       </c>
     </row>
     <row r="37">
@@ -1657,7 +1657,7 @@
         <v>10.76786654533952</v>
       </c>
       <c r="C37" t="n">
-        <v>26.10500208441776</v>
+        <v>25.94262771148193</v>
       </c>
     </row>
     <row r="38">
@@ -1670,7 +1670,7 @@
         <v>10.79256642223167</v>
       </c>
       <c r="C38" t="n">
-        <v>31.08926668001452</v>
+        <v>31.49437902850208</v>
       </c>
     </row>
     <row r="39">
@@ -1683,7 +1683,7 @@
         <v>10.8228263521391</v>
       </c>
       <c r="C39" t="n">
-        <v>26.04644541925047</v>
+        <v>26.95470345878892</v>
       </c>
     </row>
     <row r="40">
@@ -1696,7 +1696,7 @@
         <v>10.8350892807137</v>
       </c>
       <c r="C40" t="n">
-        <v>21.1479749247598</v>
+        <v>21.50662410930832</v>
       </c>
     </row>
     <row r="41">
@@ -1709,7 +1709,7 @@
         <v>10.87223500315621</v>
       </c>
       <c r="C41" t="n">
-        <v>28.35339545586385</v>
+        <v>28.42276246730843</v>
       </c>
     </row>
     <row r="42">
@@ -1722,7 +1722,7 @@
         <v>10.87826864010029</v>
       </c>
       <c r="C42" t="n">
-        <v>31.39091171305983</v>
+        <v>30.83720856357992</v>
       </c>
     </row>
     <row r="43">
@@ -1735,7 +1735,7 @@
         <v>10.90875039962612</v>
       </c>
       <c r="C43" t="n">
-        <v>32.01054688486883</v>
+        <v>32.26727422935988</v>
       </c>
     </row>
     <row r="44">
@@ -1748,7 +1748,7 @@
         <v>10.91591748238963</v>
       </c>
       <c r="C44" t="n">
-        <v>26.64655976364588</v>
+        <v>27.10743626785462</v>
       </c>
     </row>
     <row r="45">
@@ -1761,7 +1761,7 @@
         <v>10.92141194160467</v>
       </c>
       <c r="C45" t="n">
-        <v>21.28375353304513</v>
+        <v>21.39100632678263</v>
       </c>
     </row>
     <row r="46">
@@ -1774,7 +1774,7 @@
         <v>11.00183465807994</v>
       </c>
       <c r="C46" t="n">
-        <v>41.73313667757643</v>
+        <v>41.39114924920077</v>
       </c>
     </row>
     <row r="47">
@@ -1787,7 +1787,7 @@
         <v>11.04994028750337</v>
       </c>
       <c r="C47" t="n">
-        <v>18.06327054976684</v>
+        <v>18.10170970651754</v>
       </c>
     </row>
     <row r="48">
@@ -1800,7 +1800,7 @@
         <v>11.11452123561476</v>
       </c>
       <c r="C48" t="n">
-        <v>27.0809907736902</v>
+        <v>26.3808916315929</v>
       </c>
     </row>
     <row r="49">
@@ -1813,7 +1813,7 @@
         <v>11.26717178601228</v>
       </c>
       <c r="C49" t="n">
-        <v>21.87713019796754</v>
+        <v>22.96660974581912</v>
       </c>
     </row>
     <row r="50">
@@ -1826,7 +1826,7 @@
         <v>11.63249069348163</v>
       </c>
       <c r="C50" t="n">
-        <v>16.92755424863957</v>
+        <v>18.54482013524661</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.233260864570005</v>
+        <v>-8.772553850195319</v>
       </c>
     </row>
     <row r="3">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.7615787096765</v>
+        <v>122.9490522046002</v>
       </c>
     </row>
     <row r="4">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5470858869658075</v>
+        <v>-0.5691910639361861</v>
       </c>
     </row>
     <row r="5">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.750099353342526e-05</v>
+        <v>1.974649809970392e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.837522114314084</v>
+        <v>1.84841423864135</v>
       </c>
     </row>
   </sheetData>
